--- a/Main/QL_THPT.xlsx
+++ b/Main/QL_THPT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ky 1 - 4\Oanh\Thuc Tap Nhom\$ThamKhao\Clone-Hoang Anh-Thi\Bai2_TruongTHPT\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ky 1 - 4\AnhDung\Thuc tap nhom\QL_THPT\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D4E6E6-39C1-4D12-A221-80B461ACFABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71853B0-E5BF-4200-AE35-69DEB600534F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Xây dựng phần mềm quản lý học sinh, giáo viên của trường THPT</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Xây dựng màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Bùi Văn Dương</t>
   </si>
 </sst>
 </file>
@@ -292,6 +295,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -299,24 +320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -639,25 +642,25 @@
   <dimension ref="A2:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="4.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -668,8 +671,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -681,8 +684,8 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -692,56 +695,56 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -753,43 +756,43 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -801,8 +804,8 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -814,8 +817,8 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -827,61 +830,65 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="5"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E16:E19"/>
+  <mergeCells count="7">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Main/QL_THPT.xlsx
+++ b/Main/QL_THPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ky 1 - 4\AnhDung\Thuc tap nhom\QL_THPT\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71853B0-E5BF-4200-AE35-69DEB600534F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5EFB3D-CF55-451D-B3D3-AF7372C5216B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Xây dựng phần mềm quản lý học sinh, giáo viên của trường THPT</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>Bùi Văn Dương</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>Xây dựng class lớp</t>
+  </si>
+  <si>
+    <t>Xây dụng class môn học</t>
   </si>
 </sst>
 </file>
@@ -290,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -313,6 +322,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -320,16 +335,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -639,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +701,7 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="1"/>
@@ -691,7 +714,7 @@
       <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -715,7 +738,7 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="1"/>
@@ -728,7 +751,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -739,7 +762,7 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -763,7 +786,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1"/>
@@ -776,7 +799,7 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -787,7 +810,7 @@
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -819,78 +842,106 @@
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B15:B21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>